--- a/Excel/Formula Excel Template.xlsx
+++ b/Excel/Formula Excel Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCE9FB4-753E-AE4D-9FA1-0B4FD006438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BBDA46-14CA-7D44-B671-5F51E55DF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -1677,7 +1677,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -2053,7 +2053,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2124,6 +2124,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J10">LEN(C2:C10)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2153,6 +2157,9 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2182,6 +2189,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2211,6 +2221,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2240,6 +2253,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2269,6 +2285,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2298,6 +2317,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2327,6 +2349,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2355,6 +2380,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2369,14 +2397,14 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2451,6 +2479,18 @@
       <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">LEFT(B2:B10, 3)</f>
+        <v>Jim</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">RIGHT(A2:A10, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">RIGHT(H2:H10, 4)</f>
+        <v>2001</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2483,6 +2523,15 @@
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="K3" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1999</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2515,6 +2564,15 @@
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="K4" t="str">
+        <v>Dwi</v>
+      </c>
+      <c r="L4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2547,6 +2605,15 @@
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="K5" t="str">
+        <v>Ang</v>
+      </c>
+      <c r="L5" t="str">
+        <v>4</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2579,6 +2646,15 @@
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="K6" t="str">
+        <v>Tob</v>
+      </c>
+      <c r="L6" t="str">
+        <v>5</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2001</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2611,6 +2687,15 @@
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K7" t="str">
+        <v>Mic</v>
+      </c>
+      <c r="L7" t="str">
+        <v>6</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2001</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2643,6 +2728,15 @@
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="K8" t="str">
+        <v>Mer</v>
+      </c>
+      <c r="L8" t="str">
+        <v>7</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2003</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2675,6 +2769,15 @@
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="K9" t="str">
+        <v>Sta</v>
+      </c>
+      <c r="L9" t="str">
+        <v>8</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2002</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2706,6 +2809,15 @@
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Kev</v>
+      </c>
+      <c r="L10" t="str">
+        <v>9</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Formula Excel Template.xlsx
+++ b/Excel/Formula Excel Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BBDA46-14CA-7D44-B671-5F51E55DF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C5368-6279-4646-A4EB-2A858870B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="LeftRight" sheetId="4" r:id="rId4"/>
     <sheet name="DateToText" sheetId="3" r:id="rId5"/>
     <sheet name="TRIM" sheetId="6" r:id="rId6"/>
-    <sheet name="Substitute" sheetId="7" r:id="rId7"/>
-    <sheet name="SUM-SumIF" sheetId="12" r:id="rId8"/>
-    <sheet name="Count-CountIF" sheetId="5" r:id="rId9"/>
-    <sheet name="Concatenate" sheetId="1" r:id="rId10"/>
+    <sheet name="Concatenate" sheetId="1" r:id="rId7"/>
+    <sheet name="Substitute" sheetId="7" r:id="rId8"/>
+    <sheet name="SUM-SumIF" sheetId="12" r:id="rId9"/>
+    <sheet name="Count-CountIF" sheetId="5" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="88">
   <si>
     <t>FirstName</t>
   </si>
@@ -1022,27 +1022,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D217F6E-9452-40AF-AFA2-377600A25F44}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1071,10 +1067,16 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1102,8 +1104,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>COUNT(G2:G10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(G2:G10, "&gt;45000")</f>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(A2:A10, "&gt;1005", E2:E10, )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1132,7 +1146,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1161,7 +1175,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1219,7 +1233,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1248,7 +1262,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1306,7 +1320,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1333,18 +1347,6 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H11" t="str">
-        <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
@@ -1359,14 +1361,15 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1426,11 +1429,19 @@
       <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>56</v>
+      <c r="H2" s="1">
+        <v>37197</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42253</v>
+      </c>
+      <c r="J2">
+        <f>_xlfn.DAYS(I2,H2)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(H2, I2)</f>
+        <v>3611</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1455,11 +1466,19 @@
       <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>57</v>
+      <c r="H3" s="1">
+        <v>36436</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42287</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.DAYS(I3,H3)</f>
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">NETWORKDAYS(H3, I3)</f>
+        <v>4180</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1484,11 +1503,19 @@
       <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
+      <c r="H4" s="1">
+        <v>36711</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42986</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4484</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1513,11 +1540,19 @@
       <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
+      <c r="H5" s="1">
+        <v>36530</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42341</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4152</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1542,11 +1577,19 @@
       <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>60</v>
+      <c r="H6" s="1">
+        <v>37017</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42977</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4258</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1571,11 +1614,19 @@
       <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>61</v>
+      <c r="H7" s="1">
+        <v>37017</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41528</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3223</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1600,11 +1651,19 @@
       <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>61</v>
+      <c r="H8" s="1">
+        <v>37933</v>
+      </c>
+      <c r="I8" s="1">
+        <v>41528</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1629,11 +1688,19 @@
       <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>62</v>
+      <c r="H9" s="1">
+        <v>37416</v>
+      </c>
+      <c r="I9" s="1">
+        <v>42116</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3358</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1658,11 +1725,19 @@
       <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
+      <c r="H10" s="1">
+        <v>37843</v>
+      </c>
+      <c r="I10" s="1">
+        <v>42116</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2472,7 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -2830,19 +2905,20 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2874,7 +2950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2902,9 +2978,21 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TEXT(H2:H10, "yyyy-mm-dd")</f>
+        <v>2001-11-02</v>
+      </c>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">TEXT(J2:J10, "yyyy-mm-dd")</f>
+        <v>2001-11-02</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">LEFT(_xlfn.ANCHORARRAY(L2),4)</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2932,9 +3020,18 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <v>1999-10-03</v>
+      </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <v>1999-10-03</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2962,9 +3059,18 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <v>2000-07-04</v>
+      </c>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <v>2000-07-04</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2992,9 +3098,18 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <v>2000-01-05</v>
+      </c>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <v>2000-01-05</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3022,9 +3137,18 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <v>2001-05-06</v>
+      </c>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <v>2001-05-06</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3052,9 +3176,18 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <v>1995-12-07</v>
+      </c>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <v>1995-12-07</v>
+      </c>
+      <c r="M7" t="str">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3082,9 +3215,18 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <v>2003-11-08</v>
+      </c>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <v>2003-11-08</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3112,9 +3254,18 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <v>2002-06-09</v>
+      </c>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <v>2002-06-09</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3142,12 +3293,21 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
+      <c r="J10" t="str">
+        <v>2003-08-10</v>
+      </c>
       <c r="K10" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <v>2003-08-10</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
     </row>
   </sheetData>
@@ -3163,7 +3323,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3235,6 +3395,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TRIM(C2:C10)</f>
+        <v>Halpert</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3264,6 +3428,9 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <v>Beasley</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3293,6 +3460,9 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <v>Schrute</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3322,6 +3492,9 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <v>Martin</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3351,6 +3524,9 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <v>Flenderson</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3380,6 +3556,9 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <v>Scott</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3409,6 +3588,9 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <v>Palmer</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3438,6 +3620,9 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <v>Hudson</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3466,6 +3651,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3474,6 +3662,402 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>45000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>37197</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42253</v>
+      </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">CONCATENATE(B2:B10, " ",  C2:C10)</f>
+        <v>Jim Halpert</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE(B2, ".", C2, "@gmail.com")</f>
+        <v>Jim.Halpert@gmail.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>36000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36436</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42287</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Pam Beasley</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="0">CONCATENATE(B3, ".", C3, "@gmail.com")</f>
+        <v>Pam.Beasley@gmail.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>63000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36711</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42986</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Dwight Schrute</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight.Schrute@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>47000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>36530</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42341</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Angela Martin</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela.Martin@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>37017</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42977</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Toby Flenderson</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>Toby.Flenderson@gmail.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>65000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35040</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41528</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Michael Scott</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael.Scott@gmail.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>41000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>37933</v>
+      </c>
+      <c r="I8" s="1">
+        <v>41551</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Meredith Palmer</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith.Palmer@gmail.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>48000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>37416</v>
+      </c>
+      <c r="I9" s="1">
+        <v>42116</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Stanley Hudson</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley.Hudson@gmail.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>42000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>37843</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Kevin Malone</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin.Malone@gmail.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" t="str">
+        <f t="shared" ref="H11:H12" si="1">CONCATENATE(B11," ",C11)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0B9C42-087D-43BC-95CC-49AE54CDC17A}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3481,7 +4065,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,6 +4140,18 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">SUBSTITUTE(H2:H10, "/", "-", 1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">SUBSTITUTE(H2:H10, "/", "-", 2)</f>
+        <v>11/2-2001</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">SUBSTITUTE(H2:H10, "/", "-")</f>
+        <v>11-2-2001</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3585,6 +4181,15 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J3" t="str">
+        <v>10-3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <v>10/3-1999</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10-3-1999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3614,6 +4219,15 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J4" t="str">
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <v>7/4-2000</v>
+      </c>
+      <c r="L4" t="str">
+        <v>7-4-2000</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3643,6 +4257,15 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J5" t="str">
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <v>1/5-2000</v>
+      </c>
+      <c r="L5" t="str">
+        <v>1-5-2000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3672,6 +4295,15 @@
       <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J6" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <v>5/6-2001</v>
+      </c>
+      <c r="L6" t="str">
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3701,6 +4333,15 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J7" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <v>5/6-2001</v>
+      </c>
+      <c r="L7" t="str">
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3730,6 +4371,15 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J8" t="str">
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <v>11/8-2003</v>
+      </c>
+      <c r="L8" t="str">
+        <v>11-8-2003</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3759,6 +4409,15 @@
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J9" t="str">
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <v>6/9-2002</v>
+      </c>
+      <c r="L9" t="str">
+        <v>6-9-2002</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3787,6 +4446,15 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="J10" t="str">
+        <v>8-10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <v>8/10-2003</v>
+      </c>
+      <c r="L10" t="str">
+        <v>8-10-2003</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3831,7 +4499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D41C5D0-EC67-4288-8B29-30C6E5CFEE73}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3839,7 +4507,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3910,326 +4578,17 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3">
-        <v>36000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>36436</v>
-      </c>
-      <c r="I3" s="1">
-        <v>42287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>63000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>36711</v>
-      </c>
-      <c r="I4" s="1">
-        <v>42986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>47000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>36530</v>
-      </c>
-      <c r="I5" s="1">
-        <v>42341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>37017</v>
-      </c>
-      <c r="I6" s="1">
-        <v>42977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>65000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>35040</v>
-      </c>
-      <c r="I7" s="1">
-        <v>41528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
-        <v>41000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>37933</v>
-      </c>
-      <c r="I8" s="1">
-        <v>41551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>48000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>37416</v>
-      </c>
-      <c r="I9" s="1">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>42000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>37843</v>
-      </c>
-      <c r="I10" s="1">
-        <v>40800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D217F6E-9452-40AF-AFA2-377600A25F44}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>45000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>37197</v>
-      </c>
-      <c r="I2" s="1">
-        <v>42253</v>
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(G2:G10, "&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(G2:G10, E2:E10, "Female", D2:D10, "&gt;30")</f>
+        <v>88000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">

--- a/Excel/Formula Excel Template.xlsx
+++ b/Excel/Formula Excel Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C5368-6279-4646-A4EB-2A858870B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC999F10-364B-3044-8578-C5FF74109644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
